--- a/biology/Botanique/Johan_Ångström/Johan_Ångström.xlsx
+++ b/biology/Botanique/Johan_Ångström/Johan_Ångström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johan_%C3%85ngstr%C3%B6m</t>
+          <t>Johan_Ångström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan (Johannes) Ångström (Lögdö 1813 - 1879 Örnskiöldsvik) est un botaniste suédois qui étudia spécialement les fougères et les mousses. Il a notamment étudié les mousses de Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johan_%C3%85ngstr%C3%B6m</t>
+          <t>Johan_Ångström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il explore à l'été 1843 avec son collègue Fredrik Nylander l'est du grand-duché de Finlande, la Carélie russe, au bord de la mer Blanche, et la Laponie russe. Puis ils explorent la nord de la Russie et la Laponie norvégienne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johan_%C3%85ngstr%C3%B6m</t>
+          <t>Johan_Ångström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aongstroemia porte son nom.
 </t>
